--- a/FTD.Web.UI/aspx/erp/in.xlsx
+++ b/FTD.Web.UI/aspx/erp/in.xlsx
@@ -20,9 +20,6 @@
 特色农产品配送中心入库清单</t>
   </si>
   <si>
-    <t>仓管：叶华友  仓库号：1号仓库            2017年3月16日</t>
-  </si>
-  <si>
     <t>日期</t>
   </si>
   <si>
@@ -108,6 +105,10 @@
   </si>
   <si>
     <t>来源村07</t>
+  </si>
+  <si>
+    <t>仓管：叶华友  仓库号：1号仓库  入库类型：农产品  2017年3月16日</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -276,6 +277,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="11" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -287,9 +291,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -609,7 +610,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="A2" sqref="A2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -624,57 +625,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="65.099999999999994" customHeight="1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
     </row>
     <row r="2" spans="1:6" ht="30" customHeight="1">
-      <c r="A2" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
+      <c r="A2" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
     </row>
     <row r="3" spans="1:6" ht="30" customHeight="1">
       <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30" customHeight="1">
       <c r="A4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>7</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>8</v>
       </c>
       <c r="E4" s="7">
         <v>47</v>
@@ -683,16 +684,16 @@
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="1">
       <c r="A5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>9</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>10</v>
       </c>
       <c r="E5" s="7">
         <v>153.5</v>
@@ -701,16 +702,16 @@
     </row>
     <row r="6" spans="1:6" ht="30" customHeight="1">
       <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>12</v>
       </c>
       <c r="E6" s="7">
         <v>50</v>
@@ -719,16 +720,16 @@
     </row>
     <row r="7" spans="1:6" ht="30" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>26</v>
+        <v>6</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>25</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7" s="7">
         <v>50</v>
@@ -737,16 +738,16 @@
     </row>
     <row r="8" spans="1:6" ht="30" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>27</v>
+        <v>6</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>26</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8" s="11">
         <v>324</v>
@@ -755,16 +756,16 @@
     </row>
     <row r="9" spans="1:6" ht="30" customHeight="1">
       <c r="A9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>15</v>
       </c>
       <c r="E9" s="7">
         <v>66</v>
@@ -773,16 +774,16 @@
     </row>
     <row r="10" spans="1:6" ht="30" customHeight="1">
       <c r="A10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="E10" s="7">
         <v>120.4</v>
@@ -791,13 +792,13 @@
     </row>
     <row r="11" spans="1:6" ht="27.95" customHeight="1">
       <c r="A11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="D11" s="1">
         <v>13059655898</v>
